--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\中国科学技术大学 硕士\bdaa\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7BE210-7068-4112-A4D6-B056685B8971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D039AAEC-B125-412D-83EE-773412933D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" xr2:uid="{01B0DCBA-6FCA-4ECC-BB8E-873C0D60ABB0}"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="21570" windowHeight="13940" activeTab="1" xr2:uid="{01B0DCBA-6FCA-4ECC-BB8E-873C0D60ABB0}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
     <sheet name="task" sheetId="3" r:id="rId2"/>
-    <sheet name="dataresearch" sheetId="2" r:id="rId3"/>
+    <sheet name="datasearch" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="199">
   <si>
     <t>dataset</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -663,6 +663,118 @@
   </si>
   <si>
     <t>ASSISTments2012-2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATH401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculate arithmetic expressions</t>
+  </si>
+  <si>
+    <t>SVAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solve math question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://datasets.activeloop.ai/</t>
+  </si>
+  <si>
+    <t>AQuA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algebra Question Answering with Rationales</t>
+  </si>
+  <si>
+    <t>Art</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AQUA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAWPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSQA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commonsense Reasoning</t>
+  </si>
+  <si>
+    <t>StrategyQA</t>
+  </si>
+  <si>
+    <t>Commonsense Reasoning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SayCan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigBench</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instruction-induction</t>
+  </si>
+  <si>
+    <t>comprehensive tasks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instruction-Induction benchmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TruthfulQA Benchmark</t>
+  </si>
+  <si>
+    <t>generation and multi-choice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoQA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conversational Question Answering</t>
+  </si>
+  <si>
+    <t>QuAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Question Answering in Context(dialog)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQuAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALFWorld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solving tasks in text world</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScienceWorld</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1089,9 +1201,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29246B7-E41F-4901-909E-D272C3BC3FD5}">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3403,16 +3515,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E745CB64-5AA4-4797-ADAB-32A713B673E3}">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="1" max="1" width="31.08203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="14" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.9140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.83203125" style="2" customWidth="1"/>
@@ -4225,6 +4337,278 @@
         <v>161</v>
       </c>
     </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4233,10 +4617,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75F9C11-3547-4F21-ABB1-F31ED872DCF6}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4274,6 +4658,11 @@
         <v>160</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
